--- a/outputs/ML_Results/carown_LR/Dresden.xlsx
+++ b/outputs/ML_Results/carown_LR/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ8" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ10" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ17" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.775568197014635</v>
+        <v>1.732970134219733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5717497306225426</v>
+        <v>0.5788933368044945</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7376570777733652</v>
+        <v>0.1402070372986627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03471835563562827</v>
+        <v>0.680347882820815</v>
       </c>
     </row>
     <row r="4">
@@ -492,257 +492,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.725072399320461</v>
+        <v>-1.760880247254324</v>
       </c>
       <c r="C4" t="n">
-        <v>6.883079673159852e-10</v>
+        <v>4.253347451356256e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7372457313168075</v>
+        <v>-1.084870630545863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08919624892601997</v>
+        <v>0.0006733268656353179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.14764530676472</v>
+        <v>-1.052150711247818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001605888290565843</v>
+        <v>0.008769498341023856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08973845853173198</v>
+        <v>-0.1747714873291102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9159266713741935</v>
+        <v>0.21155821344098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3700571347591428</v>
+        <v>0.0003151430381457717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0106615113273081</v>
+        <v>0.0003147787039639631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003437751907957899</v>
+        <v>0.01692375788382613</v>
       </c>
       <c r="C9" t="n">
-        <v>9.610439148312969e-05</v>
+        <v>0.0298902246780118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01210926470079433</v>
+        <v>-0.05712179346791828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1028077756197207</v>
+        <v>0.7757620078218286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1052625294834177</v>
+        <v>0.8381326990203983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5902557666688806</v>
+        <v>0.009737538070343419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5600730834742487</v>
+        <v>0.5847988946481067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07966328124881818</v>
+        <v>0.167797083548605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5888722870519683</v>
+        <v>6.381641639757076e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1510597947917819</v>
+        <v>0.4744277897511214</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.388655123193645e-05</v>
+        <v>-7.218292228718558e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6915551796694082</v>
+        <v>0.5156888080733488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.167972330830622e-08</v>
+        <v>0.07183608942017779</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7159588038512577</v>
+        <v>0.574249172883732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1873910950011146</v>
+        <v>0.05444069907207688</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1882174730453393</v>
+        <v>0.6289674607399039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05948499498819991</v>
+        <v>-1.100936880213008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6235122485544571</v>
+        <v>0.2202659815276907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4178514061032044</v>
+        <v>-0.03539517138408022</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6353835176349221</v>
+        <v>0.3905873323990291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05486033155617273</v>
+        <v>-0.01457359381740956</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1827292748631473</v>
+        <v>0.2457898924542468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01232022788081632</v>
+        <v>1.300170389712324</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3296344317128964</v>
+        <v>0.7573303756037328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.350306963002438</v>
+        <v>4.463006843609498</v>
       </c>
       <c r="C21" t="n">
-        <v>0.211272194962135</v>
+        <v>0.1902963772626065</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.680151791963159</v>
+        <v>-0.5649302936575309</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0460354876730379</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.782922344450379</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.367545288869585</v>
+        <v>0.777532007569546</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.61891191219415</v>
+        <v>-0.3961960899081418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.256286558518106</v>
+        <v>0.8998466713955238</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2617903878675086</v>
+        <v>0.2430411820679466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4379828116271092</v>
+        <v>0.473810574767594</v>
       </c>
     </row>
     <row r="4">
@@ -814,257 +801,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.804389074210986</v>
+        <v>-1.627523832166488</v>
       </c>
       <c r="C4" t="n">
-        <v>1.835240569844739e-10</v>
+        <v>6.971966460541229e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.073022242318548</v>
+        <v>-1.037274248873636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01423596156610719</v>
+        <v>0.0007328466203509502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.175508253677817</v>
+        <v>-0.7342581977727637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000177610147487047</v>
+        <v>0.06817978232003598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02908671544733784</v>
+        <v>-0.1568264802736347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9798737433053646</v>
+        <v>0.2632693857831007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1710297153072474</v>
+        <v>0.0003253318680839094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2199456541327142</v>
+        <v>0.0001841895442212907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003154921415423019</v>
+        <v>0.01287595579995072</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002383835834676916</v>
+        <v>0.09352701736229857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01323235976504645</v>
+        <v>0.1012759286203281</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08150715604786753</v>
+        <v>0.6072135175503812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01775868352805845</v>
+        <v>0.7047554151469905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9286847219883242</v>
+        <v>0.03047123682956792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8148205754926725</v>
+        <v>0.6971090601581782</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01250196708671993</v>
+        <v>0.09558970651208001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.756860098848281</v>
+        <v>3.587044859919767e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07001654161920542</v>
+        <v>0.6807685329909774</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.349256565545409e-05</v>
+        <v>2.429753548054712e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6187242261629176</v>
+        <v>0.8331635416753843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.870619468137974e-08</v>
+        <v>0.1832556627052955</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6659497610141462</v>
+        <v>0.189942092496569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1009294802959416</v>
+        <v>0.1426764309384909</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4487309139152384</v>
+        <v>0.2350632530182755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001395514782219137</v>
+        <v>-0.3904795068072336</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9905786677346562</v>
+        <v>0.6654891127590458</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4619986286674511</v>
+        <v>-0.03137714679471462</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6019882118209023</v>
+        <v>0.4513563002241504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07374040791352721</v>
+        <v>-0.009271448259748644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08015803855747866</v>
+        <v>0.4621901993348864</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02198086757076481</v>
+        <v>0.8937795878021645</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08122027617064573</v>
+        <v>0.8345844510266089</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.128758199227168</v>
+        <v>2.776417705180432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2366179605368124</v>
+        <v>0.4187640026856427</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.462789925007491</v>
+        <v>0.4573927263275616</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06152800008563371</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.888971904680893</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3534191732681042</v>
+        <v>0.8211254898672717</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.13857226954961</v>
+        <v>2.737927155579248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7157196028780575</v>
+        <v>0.3912922025438544</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3044989772802429</v>
+        <v>0.4064370737827495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3785499622860999</v>
+        <v>0.2358612065794189</v>
       </c>
     </row>
     <row r="4">
@@ -1136,257 +1110,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.554335801201447</v>
+        <v>-1.762411840283054</v>
       </c>
       <c r="C4" t="n">
-        <v>4.567361066378229e-08</v>
+        <v>5.090374787710027e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7473861702534723</v>
+        <v>-1.092004323674565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0875403822621014</v>
+        <v>0.0004699581178318277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9456074723136044</v>
+        <v>-0.7085760391487115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002554146708407397</v>
+        <v>0.08173430763718222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.750881740103598</v>
+        <v>-0.1835197429266717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4045235803282042</v>
+        <v>0.2070689049431559</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.220172986008845</v>
+        <v>0.0002849451728888131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1354075035163765</v>
+        <v>0.00110583264850569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003582898128606074</v>
+        <v>0.01664527944658942</v>
       </c>
       <c r="C9" t="n">
-        <v>4.059849809544794e-05</v>
+        <v>0.03001891396348412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01572009862303115</v>
+        <v>-0.03695417059227506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04083454493322773</v>
+        <v>0.8519847711482565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0371586631528277</v>
+        <v>0.6516346849281778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8508279580685851</v>
+        <v>0.04091406167241099</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6300546024955043</v>
+        <v>0.5259144941521061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04839049920908622</v>
+        <v>0.2029179417255137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.563975256815537</v>
+        <v>-4.47117601395026e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1773112471135345</v>
+        <v>0.9582031371985662</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.187293416631426e-06</v>
+        <v>-1.094838747537048e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9706770814721839</v>
+        <v>0.3169628791899134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.651974124316875e-07</v>
+        <v>0.06858703837627086</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1258122600865347</v>
+        <v>0.5903785865400597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02085712567505916</v>
+        <v>-0.02546582592640796</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8639745202824944</v>
+        <v>0.8232408370602387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02889324614119022</v>
+        <v>0.4244484634470852</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7886125907744317</v>
+        <v>0.6300695283023481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006975501467745886</v>
+        <v>-0.07229373881370782</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9936718987536284</v>
+        <v>0.08670091323264559</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03826250986497573</v>
+        <v>-0.01574650856717114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3512190497634131</v>
+        <v>0.213624152488729</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007737251726139602</v>
+        <v>7.129627644875446</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5424071638652836</v>
+        <v>0.1014111071412961</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.617434229475544</v>
+        <v>7.219135815346799</v>
       </c>
       <c r="C21" t="n">
-        <v>0.268288350574755</v>
+        <v>0.03704749002664947</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.055874751627154</v>
+        <v>-2.060867177430486</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06962116076233285</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.588670062972447</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4177115993514985</v>
+        <v>0.3107081517757572</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.933579420944251</v>
+        <v>0.7712558406925705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.53657759585624</v>
+        <v>0.8047128146928335</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2764830641128113</v>
+        <v>0.2902020922492691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4172271048381141</v>
+        <v>0.3908227678807443</v>
       </c>
     </row>
     <row r="4">
@@ -1458,257 +1419,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.460208592286689</v>
+        <v>-1.822333798669052</v>
       </c>
       <c r="C4" t="n">
-        <v>2.557361400036104e-07</v>
+        <v>9.524083747437283e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6257286310030362</v>
+        <v>-1.257408882326387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1562927824584328</v>
+        <v>4.31899834371285e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9239350440741884</v>
+        <v>-0.7320268309215129</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002958428617783844</v>
+        <v>0.0806718835888293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5831122600589397</v>
+        <v>-0.2245185137707731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5149033641966412</v>
+        <v>0.1063367751243373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07448514790404699</v>
+        <v>0.000300827559913022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6090189297333735</v>
+        <v>0.0004183335323603265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003101127712621668</v>
+        <v>0.01349717950884158</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002929641899542548</v>
+        <v>0.07654603127861745</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01620987816308051</v>
+        <v>-0.02703894448956958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03483119986651795</v>
+        <v>0.8914069423722016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0685788828091646</v>
+        <v>0.7171209759352889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7287458793052537</v>
+        <v>0.02460125864835196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6461502115441274</v>
+        <v>0.5644807384429631</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0473923024932246</v>
+        <v>0.1696646890161244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5839078895197219</v>
+        <v>3.137500732836972e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1603969812375265</v>
+        <v>0.7175267394180305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.458560713446277e-05</v>
+        <v>-2.698641685270464e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4593583453237595</v>
+        <v>0.8164584018388189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.348919022949281e-08</v>
+        <v>0.1503495011441026</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8296299407102279</v>
+        <v>0.293922982949462</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05013897509706943</v>
+        <v>0.1054858764879442</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6955542581256646</v>
+        <v>0.3893606819872375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02025536993131026</v>
+        <v>-0.7655243895243062</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8567650017662727</v>
+        <v>0.3898785820956613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.09850240904631</v>
+        <v>-0.02175547874184869</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2111597980962939</v>
+        <v>0.596193111434306</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05626825809772509</v>
+        <v>-0.009101536911021363</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1696193320323484</v>
+        <v>0.4658664045526016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01402048010373115</v>
+        <v>-0.1848731826067626</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2648352983857782</v>
+        <v>0.9653811074584109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.15975184642978</v>
+        <v>2.904276307625861</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3214276445859828</v>
+        <v>0.3857115535680703</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.630820565745321</v>
+        <v>-0.09299255474077947</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1756915778393017</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.359339573700858</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.497500917838854</v>
+        <v>0.962688237199157</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.245552637164942</v>
+        <v>2.394734105871072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3020354707504899</v>
+        <v>0.4491944036095133</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3755456805204227</v>
+        <v>0.2436441284872186</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2800922499414346</v>
+        <v>0.4642984188551967</v>
       </c>
     </row>
     <row r="4">
@@ -1780,257 +1728,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.959272359983234</v>
+        <v>-1.398370776241264</v>
       </c>
       <c r="C4" t="n">
-        <v>8.012557618681501e-12</v>
+        <v>5.952077603948829e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9193151045394689</v>
+        <v>-1.019124194538082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0353362382053378</v>
+        <v>0.001176459034854917</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.105087829601769</v>
+        <v>-0.8245068670057483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004622501938345261</v>
+        <v>0.03595353499726828</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4145370456475932</v>
+        <v>-0.1340175983710166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6264818499979302</v>
+        <v>0.3346298286016055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2108401570668589</v>
+        <v>0.0003101040288318259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1361992931250798</v>
+        <v>0.0003178738478414198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000266765754570801</v>
+        <v>0.01355462091155064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002478100592331398</v>
+        <v>0.07416339427857491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02469724501876729</v>
+        <v>0.01195416933023935</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002205256017424842</v>
+        <v>0.9515218016197277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02980875831036589</v>
+        <v>0.8034573851590593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8824401475643779</v>
+        <v>0.01298408345374145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5726991356605701</v>
+        <v>0.67179442531111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08042569615262374</v>
+        <v>0.1080952834998198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07937019435567504</v>
+        <v>3.3233263829594e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8544323753919072</v>
+        <v>0.7009968172175263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.168797185171209e-05</v>
+        <v>-5.096219138029095e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5656497804663008</v>
+        <v>0.6478499892786252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.196202818759678e-07</v>
+        <v>0.09310742283446484</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2826425154141254</v>
+        <v>0.4837034726144441</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0293463789108625</v>
+        <v>-0.001923487055754845</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8096936846002808</v>
+        <v>0.9866879500593853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06336486725887237</v>
+        <v>-0.6959610793597378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5624348865610611</v>
+        <v>0.4281438520467381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.113796369874461</v>
+        <v>-0.06340338861009188</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2146294708596675</v>
+        <v>0.1247398059949281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.06546593330333753</v>
+        <v>-0.01374574854703665</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1174413296810964</v>
+        <v>0.2820582873922289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01375040781264866</v>
+        <v>6.190282064361679</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2796359812787025</v>
+        <v>0.1484003244648255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.831502026032157</v>
+        <v>7.264296169643756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.254346097607267</v>
+        <v>0.03417933216405786</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.540332416913973</v>
+        <v>-2.845728476894707</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0585933495265778</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.722163919010888</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3944511611912453</v>
+        <v>0.1581767004520884</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.328745827512134</v>
+        <v>1.796897747652966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6634712861576481</v>
+        <v>0.5613580097464463</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3336942365517884</v>
+        <v>0.6910942183160805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3190805739906825</v>
+        <v>0.05343038614788616</v>
       </c>
     </row>
     <row r="4">
@@ -2102,257 +2037,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.662992986443256</v>
+        <v>-1.763556466156827</v>
       </c>
       <c r="C4" t="n">
-        <v>2.358580387908637e-09</v>
+        <v>3.260134287542627e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.953672461813949</v>
+        <v>-1.136942425081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02882879684006252</v>
+        <v>0.0002125068105909029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.061606044659141</v>
+        <v>-0.6588887991465638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005270600603281033</v>
+        <v>0.105343167895302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2538334603037462</v>
+        <v>-0.3378949322042243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7649639728960298</v>
+        <v>0.0223353530508004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2330318943552834</v>
+        <v>0.0003449737849856201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0932647968369683</v>
+        <v>8.164559315289287e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003711235157196078</v>
+        <v>0.01725957571818092</v>
       </c>
       <c r="C9" t="n">
-        <v>1.677241454940909e-05</v>
+        <v>0.02408046954436792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01480288325176027</v>
+        <v>-0.05219585610696161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04990842253322808</v>
+        <v>0.789425598918057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0974285363762416</v>
+        <v>0.6427989487262054</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6193167448350678</v>
+        <v>0.04839273346335304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.541661047888419</v>
+        <v>0.577858437873629</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09266368916771135</v>
+        <v>0.1689907302781245</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.523094246966906</v>
+        <v>7.526324557199427e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2149147854606493</v>
+        <v>0.9307951482361974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.783035302721745e-05</v>
+        <v>-8.413019851777506e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8362916582600475</v>
+        <v>0.441800246374629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.003118192059884e-07</v>
+        <v>0.08716119643322959</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3577168284367781</v>
+        <v>0.4975780472676816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1051858425039163</v>
+        <v>0.03376465740054923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4040802637120322</v>
+        <v>0.7652710138432599</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03875619499906692</v>
+        <v>-0.003583840635141982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7270519489817213</v>
+        <v>0.9967332703955085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4675775797094113</v>
+        <v>-0.04631104088765971</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5910240746674019</v>
+        <v>0.2581323006532701</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02840002844783028</v>
+        <v>-0.01213519679694047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4814226966321169</v>
+        <v>0.3302200385952783</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01030464045328793</v>
+        <v>4.283667472652061</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4035429348209779</v>
+        <v>0.3031463851406742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.374649078153494</v>
+        <v>5.814519151576604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5643508636376757</v>
+        <v>0.08140375282079484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.652737365113016</v>
+        <v>-1.623482284984084</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08880002695380577</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.370644324412732</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4824349947210955</v>
+        <v>0.4035992030458452</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.222070600917323</v>
+        <v>2.700809469212552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.469161694546684</v>
+        <v>0.3792386669367031</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1773883161443099</v>
+        <v>0.2334202282954864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5987676550699168</v>
+        <v>0.4813907732449674</v>
       </c>
     </row>
     <row r="4">
@@ -2424,257 +2346,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.531935553383023</v>
+        <v>-1.538315289985376</v>
       </c>
       <c r="C4" t="n">
-        <v>4.065781945563658e-08</v>
+        <v>3.582559869724834e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9077563578654217</v>
+        <v>-0.9659674870167219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.036147999844201</v>
+        <v>0.001627827548398885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.081276593287177</v>
+        <v>-0.7163771066396583</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004465363663536859</v>
+        <v>0.06776077617013587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3168158599834382</v>
+        <v>-0.1192715068815926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.773959845211364</v>
+        <v>0.387656860589067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1364330699547332</v>
+        <v>0.0003376199115320621</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3273815454144595</v>
+        <v>7.617628087165788e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002940520897310509</v>
+        <v>0.01219878116216787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008395134795906701</v>
+        <v>0.1044518479806271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0116527923423002</v>
+        <v>-0.1501805045730079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1244398591813101</v>
+        <v>0.4409304276669024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04590420637158316</v>
+        <v>0.4911012580170867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8147430355901666</v>
+        <v>0.1211472973633454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7288608192764793</v>
+        <v>0.5731365879516369</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02445470576264198</v>
+        <v>0.1612802772758984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6526163998840087</v>
+        <v>3.361049528881585e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1161413071429502</v>
+        <v>0.6960362052254101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.884881708554804e-05</v>
+        <v>-1.056556842092603e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3614546335726715</v>
+        <v>0.3413621485071723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.243912817813861e-07</v>
+        <v>0.0531293481969306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2504413405474376</v>
+        <v>0.6810002603326446</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06057331558526345</v>
+        <v>0.01004058836155924</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6324167883761929</v>
+        <v>0.9288566818143722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04024352298920465</v>
+        <v>-0.6488118569682828</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7185761694058406</v>
+        <v>0.4486506420033632</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8911172313153211</v>
+        <v>-0.04700597779239762</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3095082946883267</v>
+        <v>0.2437868851383325</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04086010850581499</v>
+        <v>-0.0150682555996215</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3140066344502425</v>
+        <v>0.223420523819406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01397957150708191</v>
+        <v>3.703655746381877</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2570943175005892</v>
+        <v>0.3735790509902489</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.204179106831758</v>
+        <v>5.928323918181067</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5922982199261275</v>
+        <v>0.07660641023453144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.312709957392468</v>
+        <v>-1.783580042546859</v>
       </c>
       <c r="C22" t="n">
-        <v>0.106925321403745</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.23251468504868</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5252409144017992</v>
+        <v>0.3646161455179876</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.47263367334713</v>
+        <v>2.386227134354089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8812008131074082</v>
+        <v>0.4414850706890165</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2276024578052506</v>
+        <v>0.2998033395361526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4959935402607922</v>
+        <v>0.3767419780582052</v>
       </c>
     </row>
     <row r="4">
@@ -2746,257 +2655,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.931848224810019</v>
+        <v>-1.767063615186987</v>
       </c>
       <c r="C4" t="n">
-        <v>6.269246445685401e-12</v>
+        <v>4.43989856001058e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.149160804336385</v>
+        <v>-1.117137083825381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008086233239768016</v>
+        <v>0.0003193410968254279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.300240432976223</v>
+        <v>-0.7275600429451156</v>
       </c>
       <c r="C6" t="n">
-        <v>2.386569996760685e-05</v>
+        <v>0.07045744137703795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4424440843933056</v>
+        <v>-0.2269271953349747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6017211448584281</v>
+        <v>0.1102300102203191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1917918856304091</v>
+        <v>0.000287057388653829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1645284670041832</v>
+        <v>0.0007250506970414987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002567066244979897</v>
+        <v>0.01370085244762884</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002810719483727626</v>
+        <v>0.07051372207725605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01362842427436954</v>
+        <v>-0.1317574219416145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07432839636170246</v>
+        <v>0.5039222015281231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1107554825028334</v>
+        <v>0.6941291542466532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5750731054870151</v>
+        <v>0.03323369767344516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.60520187353062</v>
+        <v>0.6049175199331389</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06001340625176464</v>
+        <v>0.1478516355192141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3976964291382282</v>
+        <v>2.587198772067267e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3379499512334631</v>
+        <v>0.7644252046002229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.541498998906944e-05</v>
+        <v>-1.359031837116362e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6801137572198077</v>
+        <v>0.2120813720014804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.269175786042017e-08</v>
+        <v>0.0617216224870991</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5944513712444093</v>
+        <v>0.6272721880968373</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2519035426997887</v>
+        <v>0.02599967551708489</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09267844608261593</v>
+        <v>0.8157734030698627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2038029010339123</v>
+        <v>-0.9623712507156256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.107225455560246</v>
+        <v>0.2633880333852683</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.509057618204125</v>
+        <v>-0.0382483258912747</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5687376240394091</v>
+        <v>0.3473874394737784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0121521649049951</v>
+        <v>-0.01255807817947547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7686293913046063</v>
+        <v>0.3136734410721118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.008559746370624096</v>
+        <v>2.734076062030778</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4916804439269893</v>
+        <v>0.5138896951289413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.186290651226082</v>
+        <v>5.093697591283347</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7849918294923883</v>
+        <v>0.1289511753880163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.219908442460801</v>
+        <v>-1.218656063961704</v>
       </c>
       <c r="C22" t="n">
-        <v>0.722306745965966</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7453716918417581</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7135726445562551</v>
+        <v>0.538479948068596</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.185099861428122</v>
+        <v>1.26914307491598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7084796308263314</v>
+        <v>0.6821519595807368</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.08181923663944507</v>
+        <v>0.01681133396938332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8056302328146435</v>
+        <v>0.960093721146796</v>
       </c>
     </row>
     <row r="4">
@@ -3068,257 +2964,244 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.498574945393626</v>
+        <v>-1.626513472627707</v>
       </c>
       <c r="C4" t="n">
-        <v>1.064507206459704e-07</v>
+        <v>1.217615661987365e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6372184767156545</v>
+        <v>-0.8327592292171645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1620071428049676</v>
+        <v>0.007864065757980819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8412751054377032</v>
+        <v>-0.7169046238032213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008207237106163648</v>
+        <v>0.07399157808507983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4894499129444149</v>
+        <v>-0.02038795964182197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5633940924375633</v>
+        <v>0.8883056469267318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002249872058651034</v>
+        <v>0.0002815807125481109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9874112447786703</v>
+        <v>0.001502870894809775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002687629165817368</v>
+        <v>0.0165945000024058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001586739230583667</v>
+        <v>0.03359212234493894</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01331580236919628</v>
+        <v>-0.08939833500704152</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08846126172307017</v>
+        <v>0.6493659123560596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05206761512552906</v>
+        <v>0.6958198561356732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7908279996756957</v>
+        <v>0.03230384163859094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.039812984394883</v>
+        <v>0.3968436294878626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001506317508662758</v>
+        <v>0.3452649407646506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8920555683890886</v>
+        <v>6.121152333256449e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03280142675694438</v>
+        <v>0.4824254387305654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.252536129292559e-05</v>
+        <v>-6.777484229395552e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7087675327878993</v>
+        <v>0.5368560375722731</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.039135010020235e-08</v>
+        <v>0.06954535249614767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6535060739914957</v>
+        <v>0.5862235277596806</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0948892900117515</v>
+        <v>0.04472930059457696</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4761838124807686</v>
+        <v>0.689579653151404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05542077397754168</v>
+        <v>-0.7044125204408943</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6339811737615348</v>
+        <v>0.4246849333618139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.5676959906606925</v>
+        <v>-0.04672968643561151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5162725241435805</v>
+        <v>0.2492285016830645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04116645277107891</v>
+        <v>-0.01171133437485694</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3205678030054858</v>
+        <v>0.3451439612436517</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0135726546554517</v>
+        <v>3.016535889409668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2802708423071564</v>
+        <v>0.4662202478522907</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.132965755569546</v>
+        <v>5.332276011594635</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6198055469368491</v>
+        <v>0.112585519984966</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.13729160059017</v>
+        <v>-1.028132853197482</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2308132583100164</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.6637153836506782</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7452641765154507</v>
+        <v>0.6029646484566316</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Dresden.xlsx
+++ b/outputs/ML_Results/carown_LR/Dresden.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ26" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ17" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ19" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.732970134219733</v>
+        <v>-1.122060507163556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5788933368044945</v>
+        <v>0.6537672031628874</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1402070372986627</v>
+        <v>0.4136841970093735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.680347882820815</v>
+        <v>0.2823576854671105</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.760880247254324</v>
+        <v>-1.907121591863279</v>
       </c>
       <c r="C4" t="n">
-        <v>4.253347451356256e-10</v>
+        <v>3.404880823814976e-10</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.084870630545863</v>
+        <v>-1.232822931114253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006733268656353179</v>
+        <v>0.000206344298763568</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.052150711247818</v>
+        <v>-0.9310287821527551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008769498341023856</v>
+        <v>0.02781807974574088</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1747714873291102</v>
+        <v>-0.3389466728816419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.21155821344098</v>
+        <v>0.03472254550543872</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003151430381457717</v>
+        <v>0.0005331625450845098</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003147787039639631</v>
+        <v>2.772020077810421e-07</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01692375788382613</v>
+        <v>0.01872073311528994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0298902246780118</v>
+        <v>0.02510803396589335</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05712179346791828</v>
+        <v>-0.1471634108901087</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7757620078218286</v>
+        <v>0.4879201854963022</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8381326990203983</v>
+        <v>0.676180052184431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009737538070343419</v>
+        <v>0.04818704907456125</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5847988946481067</v>
+        <v>0.2212082365599614</v>
       </c>
       <c r="C12" t="n">
-        <v>0.167797083548605</v>
+        <v>0.6232767671262588</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.381641639757076e-05</v>
+        <v>-1.148415171496916e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4744277897511214</v>
+        <v>0.9018262380349624</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.218292228718558e-08</v>
+        <v>-9.413907431646409e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5156888080733488</v>
+        <v>0.406498830480747</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07183608942017779</v>
+        <v>0.1606087197761816</v>
       </c>
       <c r="C15" t="n">
-        <v>0.574249172883732</v>
+        <v>0.2190441807552584</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05444069907207688</v>
+        <v>0.1045839817314987</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6289674607399039</v>
+        <v>0.2819292728963905</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.100936880213008</v>
+        <v>-0.08344050329783266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2202659815276907</v>
+        <v>0.9303590563402282</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03539517138408022</v>
+        <v>-0.01488898280756007</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3905873323990291</v>
+        <v>0.6772713769920191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01457359381740956</v>
+        <v>0.001102785546459707</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2457898924542468</v>
+        <v>0.9254210333000947</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.300170389712324</v>
+        <v>0.5847572956133233</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7573303756037328</v>
+        <v>0.7897942284489454</v>
       </c>
     </row>
     <row r="21">
@@ -713,23 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.463006843609498</v>
+        <v>3.997373980044072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1902963772626065</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.5649302936575309</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.777532007569546</v>
+        <v>0.01340413739262638</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3961960899081418</v>
+        <v>-0.445942319519364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8998466713955238</v>
+        <v>0.860204337418351</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2430411820679466</v>
+        <v>0.388636590071454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.473810574767594</v>
+        <v>0.3191689095303274</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.627523832166488</v>
+        <v>-1.891545286895454</v>
       </c>
       <c r="C4" t="n">
-        <v>6.971966460541229e-09</v>
+        <v>4.315646632132857e-10</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.037274248873636</v>
+        <v>-1.371993152945593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007328466203509502</v>
+        <v>4.107996005401317e-05</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7342581977727637</v>
+        <v>-1.070189405569281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06817978232003598</v>
+        <v>0.01618676700620129</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1568264802736347</v>
+        <v>-0.2602439608419654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2632693857831007</v>
+        <v>0.1082670413334837</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003253318680839094</v>
+        <v>0.0004216220705789865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001841895442212907</v>
+        <v>5.208317441946241e-05</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01287595579995072</v>
+        <v>0.02447995360224202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09352701736229857</v>
+        <v>0.004554688294920828</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1012759286203281</v>
+        <v>-0.1137680127741923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6072135175503812</v>
+        <v>0.5997262408824473</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7047554151469905</v>
+        <v>0.7651522672097643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03047123682956792</v>
+        <v>0.03016123302025432</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6971090601581782</v>
+        <v>0.04247970019428719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09558970651208001</v>
+        <v>0.9271121690133692</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.587044859919767e-05</v>
+        <v>-6.295713303235468e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6807685329909774</v>
+        <v>0.9471187084336854</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.429753548054712e-08</v>
+        <v>-1.111163617752556e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8331635416753843</v>
+        <v>0.3314236709648516</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1832556627052955</v>
+        <v>0.1130300267975952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.189942092496569</v>
+        <v>0.3762035601504993</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1426764309384909</v>
+        <v>0.07096784915876371</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2350632530182755</v>
+        <v>0.4628150637186532</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3904795068072336</v>
+        <v>-0.2842597701179136</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6654891127590458</v>
+        <v>0.7686885280427576</v>
       </c>
     </row>
     <row r="18">
@@ -983,23 +970,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03137714679471462</v>
+        <v>-0.02603753839314612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4513563002241504</v>
+        <v>0.4670083821124656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009271448259748644</v>
+        <v>-0.001208724121951817</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4621901993348864</v>
+        <v>0.9190875294035449</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +996,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8937795878021645</v>
+        <v>1.177201872431809</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8345844510266089</v>
+        <v>0.5937413488183565</v>
       </c>
     </row>
     <row r="21">
@@ -1022,23 +1009,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.776417705180432</v>
+        <v>4.178967430211591</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4187640026856427</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4573927263275616</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8211254898672717</v>
+        <v>0.01002229796938811</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.737927155579248</v>
+        <v>-2.139361429758866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3912922025438544</v>
+        <v>0.4007361749449572</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4064370737827495</v>
+        <v>0.2882263461121131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2358612065794189</v>
+        <v>0.4726789880592256</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.762411840283054</v>
+        <v>-1.97906337466397</v>
       </c>
       <c r="C4" t="n">
-        <v>5.090374787710027e-10</v>
+        <v>2.162321573564561e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.092004323674565</v>
+        <v>-1.450156802363459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004699581178318277</v>
+        <v>2.375418650051558e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7085760391487115</v>
+        <v>-0.8729550891259621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08173430763718222</v>
+        <v>0.04346273034067478</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1835197429266717</v>
+        <v>-0.2564776286219901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2070689049431559</v>
+        <v>0.1315642737110058</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002849451728888131</v>
+        <v>0.000444821414525491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00110583264850569</v>
+        <v>2.25889349244756e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01664527944658942</v>
+        <v>0.02570719353507604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03001891396348412</v>
+        <v>0.003491358960003846</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03695417059227506</v>
+        <v>-0.04372419383658878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8519847711482565</v>
+        <v>0.8401595231566141</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6516346849281778</v>
+        <v>0.916381306035541</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04091406167241099</v>
+        <v>0.007542865827312004</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5259144941521061</v>
+        <v>0.1951852505834547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2029179417255137</v>
+        <v>0.665558337337371</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.47117601395026e-06</v>
+        <v>-1.404079317940233e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9582031371985662</v>
+        <v>0.8815840943255399</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.094838747537048e-07</v>
+        <v>-1.350646801956952e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3169628791899134</v>
+        <v>0.2511197845984415</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06858703837627086</v>
+        <v>0.1563439040022956</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5903785865400597</v>
+        <v>0.2490171545760408</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02546582592640796</v>
+        <v>0.1115585023934655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8232408370602387</v>
+        <v>0.2725427118943879</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4244484634470852</v>
+        <v>0.3963821610552247</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6300695283023481</v>
+        <v>0.6831432506955006</v>
       </c>
     </row>
     <row r="18">
@@ -1292,23 +1266,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07229373881370782</v>
+        <v>-0.01034616147560509</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08670091323264559</v>
+        <v>0.7740771268372998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01574650856717114</v>
+        <v>0.003913354324364237</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213624152488729</v>
+        <v>0.7463440752068529</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.129627644875446</v>
+        <v>1.026941662124525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1014111071412961</v>
+        <v>0.6488720903224211</v>
       </c>
     </row>
     <row r="21">
@@ -1331,23 +1305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.219135815346799</v>
+        <v>4.070412139444631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03704749002664947</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.060867177430486</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3107081517757572</v>
+        <v>0.01585088041313507</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7712558406925705</v>
+        <v>-2.753615830315674</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8047128146928335</v>
+        <v>0.2674344520574006</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2902020922492691</v>
+        <v>-0.03389296809372552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3908227678807443</v>
+        <v>0.9304602632986887</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.822333798669052</v>
+        <v>-1.72523082367304</v>
       </c>
       <c r="C4" t="n">
-        <v>9.524083747437283e-11</v>
+        <v>2.335817256909162e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.257408882326387</v>
+        <v>-1.174147933036401</v>
       </c>
       <c r="C5" t="n">
-        <v>4.31899834371285e-05</v>
+        <v>0.0005178099087084772</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7320268309215129</v>
+        <v>-1.048525245343242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0806718835888293</v>
+        <v>0.01132390948706681</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2245185137707731</v>
+        <v>-0.1031598022440048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1063367751243373</v>
+        <v>0.5379699394992421</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000300827559913022</v>
+        <v>0.0005310449762897172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004183335323603265</v>
+        <v>6.284097384393557e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01349717950884158</v>
+        <v>0.02682722562420258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07654603127861745</v>
+        <v>0.00183285070487216</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02703894448956958</v>
+        <v>-0.1299856158293073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8914069423722016</v>
+        <v>0.5421616413208025</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7171209759352889</v>
+        <v>0.6022231760200544</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02460125864835196</v>
+        <v>0.08108202310009976</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5644807384429631</v>
+        <v>-0.02209625838951635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1696646890161244</v>
+        <v>0.9611429295750719</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.137500732836972e-05</v>
+        <v>-3.26224642797518e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7175267394180305</v>
+        <v>0.7259064999270057</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.698641685270464e-08</v>
+        <v>-1.843765575943938e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8164584018388189</v>
+        <v>0.1029354350081852</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1503495011441026</v>
+        <v>0.1403734892044477</v>
       </c>
       <c r="C15" t="n">
-        <v>0.293922982949462</v>
+        <v>0.2574717363534416</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1054858764879442</v>
+        <v>0.07354569289952556</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3893606819872375</v>
+        <v>0.4329824028052122</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7655243895243062</v>
+        <v>0.2420356936022776</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3898785820956613</v>
+        <v>0.7957794888174647</v>
       </c>
     </row>
     <row r="18">
@@ -1601,23 +1562,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02175547874184869</v>
+        <v>-0.002194700470039071</v>
       </c>
       <c r="C18" t="n">
-        <v>0.596193111434306</v>
+        <v>0.951033187795425</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009101536911021363</v>
+        <v>0.007833234430959011</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4658664045526016</v>
+        <v>0.4985311571897707</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1848731826067626</v>
+        <v>0.4549028645238241</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9653811074584109</v>
+        <v>0.8370023824016615</v>
       </c>
     </row>
     <row r="21">
@@ -1640,23 +1601,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.904276307625861</v>
+        <v>4.829132907726538</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3857115535680703</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.09299255474077947</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.962688237199157</v>
+        <v>0.003290597643574142</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.394734105871072</v>
+        <v>-1.190521814508823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4491944036095133</v>
+        <v>0.6293923871161871</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2436441284872186</v>
+        <v>0.6627907595429448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4642984188551967</v>
+        <v>0.1094773586300365</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.398370776241264</v>
+        <v>-1.884051684565666</v>
       </c>
       <c r="C4" t="n">
-        <v>5.952077603948829e-07</v>
+        <v>2.783501113146606e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.019124194538082</v>
+        <v>-1.388681516593508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001176459034854917</v>
+        <v>4.265059646155535e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8245068670057483</v>
+        <v>-0.8923020172419954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03595353499726828</v>
+        <v>0.03162333359232137</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1340175983710166</v>
+        <v>-0.3962150916478916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3346298286016055</v>
+        <v>0.02359949616527535</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003101040288318259</v>
+        <v>0.000517746925037874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003178738478414198</v>
+        <v>9.398506441792976e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01355462091155064</v>
+        <v>0.01962545206198435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07416339427857491</v>
+        <v>0.02173671563800046</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01195416933023935</v>
+        <v>-0.3040859350999447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9515218016197277</v>
+        <v>0.1612648359952843</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8034573851590593</v>
+        <v>0.7046243960363774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01298408345374145</v>
+        <v>0.04295884684640359</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.67179442531111</v>
+        <v>0.06149703535528901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1080952834998198</v>
+        <v>0.892658920184846</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.3233263829594e-05</v>
+        <v>-2.496867677770889e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7009968172175263</v>
+        <v>0.7895638481416563</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.096219138029095e-08</v>
+        <v>-1.188664892912169e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6478499892786252</v>
+        <v>0.2948843338281729</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09310742283446484</v>
+        <v>0.148691607415473</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4837034726144441</v>
+        <v>0.2300437180950128</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.001923487055754845</v>
+        <v>0.05596429746935352</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9866879500593853</v>
+        <v>0.5538791919585357</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6959610793597378</v>
+        <v>-0.6433859935685413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4281438520467381</v>
+        <v>0.49917058629752</v>
       </c>
     </row>
     <row r="18">
@@ -1910,23 +1858,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06340338861009188</v>
+        <v>-0.001402161326554572</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1247398059949281</v>
+        <v>0.9685517613057266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01374574854703665</v>
+        <v>0.005254606469031625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2820582873922289</v>
+        <v>0.6439741596631097</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.190282064361679</v>
+        <v>0.1032983731833044</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1484003244648255</v>
+        <v>0.9626195226338722</v>
       </c>
     </row>
     <row r="21">
@@ -1949,23 +1897,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.264296169643756</v>
+        <v>3.744076989574975</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03417933216405786</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.845728476894707</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1581767004520884</v>
+        <v>0.02211020478478249</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.796897747652966</v>
+        <v>-1.957809832242757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5613580097464463</v>
+        <v>0.4198120523956201</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6910942183160805</v>
+        <v>0.5153140259630415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05343038614788616</v>
+        <v>0.2083690174020146</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.763556466156827</v>
+        <v>-1.990778806305654</v>
       </c>
       <c r="C4" t="n">
-        <v>3.260134287542627e-10</v>
+        <v>5.811441222917151e-11</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.136942425081</v>
+        <v>-1.516839570969715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002125068105909029</v>
+        <v>4.655351431330871e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6588887991465638</v>
+        <v>-0.5408787539735568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105343167895302</v>
+        <v>0.2289387314529052</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3378949322042243</v>
+        <v>-0.4191057569958433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0223353530508004</v>
+        <v>0.01175368549924297</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003449737849856201</v>
+        <v>0.0004901692944444774</v>
       </c>
       <c r="C8" t="n">
-        <v>8.164559315289287e-05</v>
+        <v>1.901320739119471e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01725957571818092</v>
+        <v>0.0266409485728964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02408046954436792</v>
+        <v>0.001973048020463066</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05219585610696161</v>
+        <v>-0.1287992307540274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.789425598918057</v>
+        <v>0.5467997976491318</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6427989487262054</v>
+        <v>0.9846128617377292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04839273346335304</v>
+        <v>0.003961313969401255</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.577858437873629</v>
+        <v>0.1613503452692055</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1689907302781245</v>
+        <v>0.7198569858396793</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.526324557199427e-06</v>
+        <v>-1.17175761502337e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9307951482361974</v>
+        <v>0.8981192913271792</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.413019851777506e-08</v>
+        <v>-1.701140335780271e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441800246374629</v>
+        <v>0.1273450024954638</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08716119643322959</v>
+        <v>0.1406754507864695</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4975780472676816</v>
+        <v>0.2507892266777056</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03376465740054923</v>
+        <v>0.05994984172605258</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7652710138432599</v>
+        <v>0.5258499719027379</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.003583840635141982</v>
+        <v>-0.04045118404592055</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9967332703955085</v>
+        <v>0.9659414233639513</v>
       </c>
     </row>
     <row r="18">
@@ -2219,23 +2154,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.04631104088765971</v>
+        <v>-0.0006369732528064775</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2581323006532701</v>
+        <v>0.9853808983803857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01213519679694047</v>
+        <v>0.006056125474320559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3302200385952783</v>
+        <v>0.5857083966841208</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.283667472652061</v>
+        <v>0.4172998400525307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3031463851406742</v>
+        <v>0.8470181713745015</v>
       </c>
     </row>
     <row r="21">
@@ -2258,23 +2193,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.814519151576604</v>
+        <v>3.559374232546647</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08140375282079484</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.623482284984084</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4035992030458452</v>
+        <v>0.02934720590606577</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.700809469212552</v>
+        <v>-3.533418545472018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3792386669367031</v>
+        <v>0.1612221918273247</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2334202282954864</v>
+        <v>0.161090218752326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4813907732449674</v>
+        <v>0.687217165579376</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.538315289985376</v>
+        <v>-1.731298006431897</v>
       </c>
       <c r="C4" t="n">
-        <v>3.582559869724834e-08</v>
+        <v>3.203717341578571e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9659674870167219</v>
+        <v>-1.021318815257847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001627827548398885</v>
+        <v>0.003139525112956056</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7163771066396583</v>
+        <v>-0.9855197218328861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06776077617013587</v>
+        <v>0.01604230604134176</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2307,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1192715068815926</v>
+        <v>-0.1448248325785557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.387656860589067</v>
+        <v>0.4017409767409761</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003376199115320621</v>
+        <v>0.0005493343715868206</v>
       </c>
       <c r="C8" t="n">
-        <v>7.617628087165788e-05</v>
+        <v>3.90371218962612e-07</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01219878116216787</v>
+        <v>0.02494647772554173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1044518479806271</v>
+        <v>0.00490864836615388</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1501805045730079</v>
+        <v>-0.1481383933475573</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4409304276669024</v>
+        <v>0.4879172748388233</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4911012580170867</v>
+        <v>0.8152203356926114</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1211472973633454</v>
+        <v>0.01755822791420056</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5731365879516369</v>
+        <v>0.06249150536781473</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1612802772758984</v>
+        <v>0.8907169420153266</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.361049528881585e-05</v>
+        <v>-7.107599562593385e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6960362052254101</v>
+        <v>0.4505391663878039</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.056556842092603e-07</v>
+        <v>-1.167776313157756e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3413621485071723</v>
+        <v>0.3105244592547487</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0531293481969306</v>
+        <v>0.2218359505587773</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6810002603326446</v>
+        <v>0.09312399866822328</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01004058836155924</v>
+        <v>0.1034752564444787</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9288566818143722</v>
+        <v>0.2894860173506013</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6488118569682828</v>
+        <v>0.2770538898703485</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4486506420033632</v>
+        <v>0.7725869408692281</v>
       </c>
     </row>
     <row r="18">
@@ -2528,23 +2450,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.04700597779239762</v>
+        <v>0.0003925756324156286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2437868851383325</v>
+        <v>0.991098768327619</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0150682555996215</v>
+        <v>0.008967699916130143</v>
       </c>
       <c r="C19" t="n">
-        <v>0.223420523819406</v>
+        <v>0.448064572350404</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.703655746381877</v>
+        <v>1.034910116833368</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3735790509902489</v>
+        <v>0.6372058714445327</v>
       </c>
     </row>
     <row r="21">
@@ -2567,23 +2489,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.928323918181067</v>
+        <v>4.36246466555217</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07660641023453144</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.783580042546859</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3646161455179876</v>
+        <v>0.008899561894073387</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.386227134354089</v>
+        <v>-1.479156387204057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4414850706890165</v>
+        <v>0.5597837058229367</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2998033395361526</v>
+        <v>0.1587492459126309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3767419780582052</v>
+        <v>0.6903637471258175</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.767063615186987</v>
+        <v>-1.950259753347484</v>
       </c>
       <c r="C4" t="n">
-        <v>4.43989856001058e-10</v>
+        <v>2.98621002052418e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.117137083825381</v>
+        <v>-1.617677341446246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003193410968254279</v>
+        <v>2.268111122050483e-06</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2590,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7275600429451156</v>
+        <v>-1.338294443776896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07045744137703795</v>
+        <v>0.001484447816931425</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2603,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2269271953349747</v>
+        <v>-0.2524436432908563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1102300102203191</v>
+        <v>0.1262905530779987</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2616,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000287057388653829</v>
+        <v>0.0004940945875837165</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007250506970414987</v>
+        <v>2.548548710268727e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01370085244762884</v>
+        <v>0.02272521862897398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07051372207725605</v>
+        <v>0.0086655470312952</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1317574219416145</v>
+        <v>-0.1959157956697221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5039222015281231</v>
+        <v>0.3626264130551926</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6941291542466532</v>
+        <v>0.697400444047016</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03323369767344516</v>
+        <v>0.04525693261911446</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6049175199331389</v>
+        <v>-0.01479467600386098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1478516355192141</v>
+        <v>0.9745108256706378</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.587198772067267e-05</v>
+        <v>4.507922247728831e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7644252046002229</v>
+        <v>0.6402931947918802</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.359031837116362e-07</v>
+        <v>-1.65579241082796e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2120813720014804</v>
+        <v>0.1442332610520091</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0617216224870991</v>
+        <v>0.1173336486529558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6272721880968373</v>
+        <v>0.355505059919039</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02599967551708489</v>
+        <v>0.09375002242882584</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8157734030698627</v>
+        <v>0.3247416389973871</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.9623712507156256</v>
+        <v>-0.1249655564089736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2633880333852683</v>
+        <v>0.8969012560048124</v>
       </c>
     </row>
     <row r="18">
@@ -2837,23 +2746,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0382483258912747</v>
+        <v>-0.01348465833650304</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3473874394737784</v>
+        <v>0.7034865069170834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01255807817947547</v>
+        <v>0.003626947016831112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3136734410721118</v>
+        <v>0.7608273795726659</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.734076062030778</v>
+        <v>0.7392944827513572</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5138896951289413</v>
+        <v>0.7369262685795137</v>
       </c>
     </row>
     <row r="21">
@@ -2876,23 +2785,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.093697591283347</v>
+        <v>4.251542101000172</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1289511753880163</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.218656063961704</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.538479948068596</v>
+        <v>0.01005144808468831</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.26914307491598</v>
+        <v>-2.084614010018004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6821519595807368</v>
+        <v>0.4066670457223058</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01681133396938332</v>
+        <v>0.2483065278539118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.960093721146796</v>
+        <v>0.5228099414852436</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.626513472627707</v>
+        <v>-1.821765798994669</v>
       </c>
       <c r="C4" t="n">
-        <v>1.217615661987365e-08</v>
+        <v>2.049084808278784e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8327592292171645</v>
+        <v>-1.394240522729017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007864065757980819</v>
+        <v>2.361074259255104e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7169046238032213</v>
+        <v>-1.147869591155353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07399157808507983</v>
+        <v>0.005748999743665215</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.02038795964182197</v>
+        <v>-0.2551683421324464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8883056469267318</v>
+        <v>0.1125815671691408</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002815807125481109</v>
+        <v>0.0004343980109345932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001502870894809775</v>
+        <v>2.452532020563986e-05</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0165945000024058</v>
+        <v>0.02457662451143448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03359212234493894</v>
+        <v>0.003682744138862532</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.08939833500704152</v>
+        <v>-0.1680554028164666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6493659123560596</v>
+        <v>0.4273093217879504</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6958198561356732</v>
+        <v>0.9114997525415161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03230384163859094</v>
+        <v>0.008548311314739305</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3968436294878626</v>
+        <v>0.1245793039899289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3452649407646506</v>
+        <v>0.782763335996064</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.121152333256449e-05</v>
+        <v>-9.670424985922509e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4824254387305654</v>
+        <v>0.9179323821784293</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.777484229395552e-08</v>
+        <v>-1.144396010887733e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5368560375722731</v>
+        <v>0.3126007836315807</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06954535249614767</v>
+        <v>0.09089874288147687</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5862235277596806</v>
+        <v>0.4741263386352002</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04472930059457696</v>
+        <v>0.08440836067784048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.689579653151404</v>
+        <v>0.3745373348576049</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7044125204408943</v>
+        <v>-0.2841593645507635</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4246849333618139</v>
+        <v>0.7654102530067276</v>
       </c>
     </row>
     <row r="18">
@@ -3146,23 +3042,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.04672968643561151</v>
+        <v>-0.01098663799137123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2492285016830645</v>
+        <v>0.7616170276932792</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01171133437485694</v>
+        <v>0.007400797162684034</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3451439612436517</v>
+        <v>0.5260276610366901</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.016535889409668</v>
+        <v>1.11925153836158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4662202478522907</v>
+        <v>0.6138243320800991</v>
       </c>
     </row>
     <row r="21">
@@ -3185,23 +3081,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.332276011594635</v>
+        <v>3.546578298244939</v>
       </c>
       <c r="C21" t="n">
-        <v>0.112585519984966</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.028132853197482</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6029646484566316</v>
+        <v>0.02835243948070927</v>
       </c>
     </row>
   </sheetData>
